--- a/MarsSeleniumStandard/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsSeleniumStandard/ExcelData/TestDataShareSkill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khushbu Prajapati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHUSHBU\TESTING\PROJECTS\MarsSeleniumStandard\MarsSeleniumStandard\MarsSeleniumStandard\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29817A4-8B65-4642-A94E-7E90C64F92B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215DFEA1-81B7-4203-9F8A-EB280F4CF758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Url</t>
   </si>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,8 +760,8 @@
       <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" t="s">
-        <v>11</v>
+      <c r="O2">
+        <v>5</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
